--- a/dataset/rt_df_thermo1.xlsx
+++ b/dataset/rt_df_thermo1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiwang/vscode_project/thermo_more_model/dataset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535DE3C2-C62F-C643-95A7-504440821E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27940" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rt_df" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="723">
   <si>
     <t>ID</t>
   </si>
@@ -2163,19 +2168,57 @@
   </si>
   <si>
     <t>Sm0.1000Sr0.1000Mn0.1600Co0.0400O0.6000</t>
+  </si>
+  <si>
+    <t>Li4Ti5O12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.1905Ti0.2381O0.5714</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiCoO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.25Co0.25O0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiFePO4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.1429Fe0.1429P0.1429O0.5713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.2La0.6TiO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiMn2O4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.0417La0.125Ti0.2083O0.625</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li0.1429Mn0.2857O0.5714</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2187,341 +2230,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2529,323 +2258,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3103,24 +2540,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D388"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="D390" sqref="D390"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="70.875" customWidth="1"/>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3243,7 +2680,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -3257,7 +2694,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -3285,7 +2722,7 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.1281</v>
+        <v>0.12809999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -3313,7 +2750,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>0.0719</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -3327,7 +2764,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -3397,7 +2834,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -3705,7 +3142,7 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D42" t="s">
         <v>74</v>
@@ -3789,7 +3226,7 @@
         <v>84</v>
       </c>
       <c r="C48">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
@@ -3901,7 +3338,7 @@
         <v>99</v>
       </c>
       <c r="C56">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D56" t="s">
         <v>100</v>
@@ -3999,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -4027,7 +3464,7 @@
         <v>110</v>
       </c>
       <c r="C65">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
@@ -4055,7 +3492,7 @@
         <v>114</v>
       </c>
       <c r="C67">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D67" t="s">
         <v>115</v>
@@ -4083,7 +3520,7 @@
         <v>118</v>
       </c>
       <c r="C69">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -4111,7 +3548,7 @@
         <v>122</v>
       </c>
       <c r="C71">
-        <v>4.933333333</v>
+        <v>4.9333333330000002</v>
       </c>
       <c r="D71" t="s">
         <v>123</v>
@@ -4125,7 +3562,7 @@
         <v>124</v>
       </c>
       <c r="C72">
-        <v>8.566666667</v>
+        <v>8.5666666669999998</v>
       </c>
       <c r="D72" t="s">
         <v>125</v>
@@ -4139,7 +3576,7 @@
         <v>124</v>
       </c>
       <c r="C73">
-        <v>5.733</v>
+        <v>5.7329999999999997</v>
       </c>
       <c r="D73" t="s">
         <v>125</v>
@@ -4195,7 +3632,7 @@
         <v>132</v>
       </c>
       <c r="C77">
-        <v>-4.19</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
@@ -4223,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="C79">
-        <v>-0.761</v>
+        <v>-0.76100000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>137</v>
@@ -4265,7 +3702,7 @@
         <v>142</v>
       </c>
       <c r="C82">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D82" t="s">
         <v>143</v>
@@ -4643,7 +4080,7 @@
         <v>194</v>
       </c>
       <c r="C109">
-        <v>-6.084</v>
+        <v>-6.0839999999999996</v>
       </c>
       <c r="D109" t="s">
         <v>195</v>
@@ -4657,7 +4094,7 @@
         <v>196</v>
       </c>
       <c r="C110">
-        <v>13.729</v>
+        <v>13.728999999999999</v>
       </c>
       <c r="D110" t="s">
         <v>197</v>
@@ -4825,7 +4262,7 @@
         <v>219</v>
       </c>
       <c r="C122">
-        <v>-38.3</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="D122" t="s">
         <v>220</v>
@@ -4853,7 +4290,7 @@
         <v>67</v>
       </c>
       <c r="C124">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D124" t="s">
         <v>68</v>
@@ -5175,7 +4612,7 @@
         <v>265</v>
       </c>
       <c r="C147">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D147" t="s">
         <v>266</v>
@@ -5189,7 +4626,7 @@
         <v>267</v>
       </c>
       <c r="C148">
-        <v>-17.46666667</v>
+        <v>-17.466666669999999</v>
       </c>
       <c r="D148" t="s">
         <v>268</v>
@@ -5357,7 +4794,7 @@
         <v>288</v>
       </c>
       <c r="C160">
-        <v>-36.7</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="D160" t="s">
         <v>289</v>
@@ -5385,7 +4822,7 @@
         <v>292</v>
       </c>
       <c r="C162">
-        <v>-134.2</v>
+        <v>-134.19999999999999</v>
       </c>
       <c r="D162" t="s">
         <v>293</v>
@@ -5427,7 +4864,7 @@
         <v>298</v>
       </c>
       <c r="C165">
-        <v>-69.6</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="D165" t="s">
         <v>299</v>
@@ -5749,7 +5186,7 @@
         <v>342</v>
       </c>
       <c r="C188">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D188" t="s">
         <v>343</v>
@@ -5763,7 +5200,7 @@
         <v>344</v>
       </c>
       <c r="C189">
-        <v>-16.86666667</v>
+        <v>-16.866666670000001</v>
       </c>
       <c r="D189" t="s">
         <v>345</v>
@@ -5805,7 +5242,7 @@
         <v>350</v>
       </c>
       <c r="C192">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D192" t="s">
         <v>351</v>
@@ -5847,7 +5284,7 @@
         <v>354</v>
       </c>
       <c r="C195">
-        <v>-0.673</v>
+        <v>-0.67300000000000004</v>
       </c>
       <c r="D195" t="s">
         <v>355</v>
@@ -5931,7 +5368,7 @@
         <v>366</v>
       </c>
       <c r="C201">
-        <v>-0.794</v>
+        <v>-0.79400000000000004</v>
       </c>
       <c r="D201" t="s">
         <v>367</v>
@@ -6281,7 +5718,7 @@
         <v>414</v>
       </c>
       <c r="C226">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D226" t="s">
         <v>415</v>
@@ -6407,7 +5844,7 @@
         <v>432</v>
       </c>
       <c r="C235">
-        <v>2.892</v>
+        <v>2.8919999999999999</v>
       </c>
       <c r="D235" t="s">
         <v>433</v>
@@ -6421,7 +5858,7 @@
         <v>432</v>
       </c>
       <c r="C236">
-        <v>2.201</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="D236" t="s">
         <v>433</v>
@@ -6435,7 +5872,7 @@
         <v>434</v>
       </c>
       <c r="C237">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D237" t="s">
         <v>435</v>
@@ -6617,7 +6054,7 @@
         <v>458</v>
       </c>
       <c r="C250">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D250" t="s">
         <v>459</v>
@@ -6659,7 +6096,7 @@
         <v>464</v>
       </c>
       <c r="C253">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D253" t="s">
         <v>465</v>
@@ -6701,7 +6138,7 @@
         <v>470</v>
       </c>
       <c r="C256">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D256" t="s">
         <v>471</v>
@@ -6799,7 +6236,7 @@
         <v>484</v>
       </c>
       <c r="C263">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="D263" t="s">
         <v>485</v>
@@ -6827,7 +6264,7 @@
         <v>486</v>
       </c>
       <c r="C265">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="D265" t="s">
         <v>487</v>
@@ -6897,7 +6334,7 @@
         <v>494</v>
       </c>
       <c r="C270">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D270" t="s">
         <v>495</v>
@@ -7023,7 +6460,7 @@
         <v>512</v>
       </c>
       <c r="C279">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D279" t="s">
         <v>513</v>
@@ -7093,7 +6530,7 @@
         <v>522</v>
       </c>
       <c r="C284">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D284" t="s">
         <v>523</v>
@@ -7163,7 +6600,7 @@
         <v>528</v>
       </c>
       <c r="C289">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D289" t="s">
         <v>529</v>
@@ -8087,7 +7524,7 @@
         <v>644</v>
       </c>
       <c r="C355">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D355" t="s">
         <v>645</v>
@@ -8255,7 +7692,7 @@
         <v>668</v>
       </c>
       <c r="C367">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D367" t="s">
         <v>669</v>
@@ -8423,7 +7860,7 @@
         <v>692</v>
       </c>
       <c r="C379">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D379" t="s">
         <v>693</v>
@@ -8499,7 +7936,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>385</v>
       </c>
@@ -8513,7 +7950,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>386</v>
       </c>
@@ -8527,7 +7964,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>387</v>
       </c>
@@ -8541,7 +7978,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:5">
       <c r="A388">
         <v>388</v>
       </c>
@@ -8555,9 +7992,94 @@
         <v>711</v>
       </c>
     </row>
+    <row r="389" spans="1:5">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C389">
+        <v>15</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C390">
+        <v>13</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C391">
+        <v>12.2</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C392">
+        <v>4.3</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C393">
+        <v>4.3</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C394">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>